--- a/workfile/锐安项目文档/问题清单/bi问题反馈.xlsx
+++ b/workfile/锐安项目文档/问题清单/bi问题反馈.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已将相应的错误数据提交，在处理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过家园系统中取得这部分领导相应的权限，已完成处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,90 @@
   </si>
   <si>
     <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数据已有反馈内容，进行核实及修改。已对反馈的可修改部分修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定的数据权限表为用户对应利润中心，而需要的是用户对应利润中心组的权限，需同武经理沟通该表的取数源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过家园系统获取该权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A列调整导出不要合并单元格，以便导出进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻取的表加上对应会计期间字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出表及页面title修改调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行相关导出和页面跳转的title及文件名实现方式调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻取到3级利润中心的会计科目时无法下钻到下级利润中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,16 +892,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="106.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
@@ -1587,7 +1667,7 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -1615,7 +1695,7 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -1643,7 +1723,7 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -1710,10 +1790,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>25</v>
@@ -1722,7 +1802,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4">
         <v>43657</v>
@@ -1731,17 +1811,167 @@
         <v>43658</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43661</v>
+      </c>
+      <c r="H32" s="4">
+        <v>43662</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43671</v>
+      </c>
+      <c r="H33" s="4">
+        <v>43671</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43671</v>
+      </c>
+      <c r="H34" s="4">
+        <v>43671</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="4">
+        <v>43671</v>
+      </c>
+      <c r="H35" s="4">
+        <v>43672</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43671</v>
+      </c>
+      <c r="H36" s="4">
+        <v>43671</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1199">
       <formula1>"BUG,需求"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1199">
       <formula1>"未处理,处理中,已处理"</formula1>
     </dataValidation>
   </dataValidations>
